--- a/test/calc/parser/transformer/templateT002.xlsx
+++ b/test/calc/parser/transformer/templateT002.xlsx
@@ -1662,7 +1662,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1705,7 +1705,9 @@
         <v>21</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -1715,7 +1717,9 @@
         <v>22</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="29">
+        <v>2</v>
+      </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1739,7 +1743,9 @@
         <v>24</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="29">
+        <v>4</v>
+      </c>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:18" s="19" customFormat="1">
@@ -1747,7 +1753,9 @@
         <v>25</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="30"/>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
@@ -1756,7 +1764,9 @@
         <v>8</v>
       </c>
       <c r="B11" s="34"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:18">
       <c r="D12" s="19"/>
